--- a/Software/RBRK.xlsx
+++ b/Software/RBRK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C328FE8-BD39-D04D-B923-DA2745AF2CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5981EEE-19C9-F644-84EC-8AECCFB8D104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1941,13 +1941,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>44.13</v>
+    <v>44.98</v>
     <v>28.34</v>
     <v>1.9390000000000001</v>
-    <v>1.74</v>
-    <v>4.1877000000000004E-2</v>
-    <v>-0.28999999999999998</v>
-    <v>-6.6990000000000001E-3</v>
+    <v>1.18</v>
+    <v>2.7258000000000001E-2</v>
+    <v>0.43</v>
+    <v>9.6690000000000005E-3</v>
     <v>USD</v>
     <v>Rubrik, Inc. is a converged data management company. The Company has developed Zero Trust Data Security. It helps organizations achieve business resilience against cyberattacks, malicious insiders, and operational disruptions. Its Rubrik Security Cloud (RSC), powered by machine learning, secures data across enterprise, cloud, and Software as a service (SaaS) application. RSC detects, analyzes, and remediates data security risks and unauthorized user activities. It helps organizations uphold data integrity, deliver data availability that withstands adverse conditions, continuously monitor data risks and threats, and restore businesses with their data when infrastructure is attacked. The Company offers Ruby for artificial intelligence (AI) data defense and recovery. Ruby is designed to help customers scale their data security operations with automation, boosting productivity, and bridging the users’ skills gap.</v>
     <v>3100</v>
@@ -1955,23 +1955,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3495 Deer Creek Road, PALO ALTO, CA, 94304 US</v>
-    <v>44.13</v>
+    <v>44.98</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.960558691404</v>
-    <v>42.81</v>
-    <v>7863767028</v>
+    <v>45604.03939859922</v>
+    <v>43.3</v>
+    <v>8078117804</v>
     <v>RUBRIK, INC.</v>
     <v>RUBRIK, INC.</v>
-    <v>42.99</v>
-    <v>41.55</v>
+    <v>43.6</v>
     <v>43.29</v>
-    <v>43</v>
+    <v>44.47</v>
+    <v>44.9</v>
     <v>181653200</v>
     <v>RBRK</v>
     <v>RUBRIK, INC. (XNYS:RBRK)</v>
-    <v>1280536</v>
-    <v>1772753</v>
+    <v>1286668</v>
+    <v>1770906</v>
     <v>2013</v>
   </rv>
   <rv s="1">
@@ -2851,7 +2851,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2884,14 +2884,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>43.29</v>
+        <v>44.47</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.4176850634730531</v>
+        <v>9.6743925796407186</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2931,14 +2931,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.1877000000000004E-2</v>
+        <v>2.7258000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>-24.346027950464396</v>
+        <v>-25.009652643962848</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2979,14 +2979,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>7863767028</v>
+        <v>8078117804</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>-1.9710655141244857E-2</v>
+        <v>-1.9187637982111309E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.66657664373232661</v>
+        <v>-0.67542394664206018</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Software/RBRK.xlsx
+++ b/Software/RBRK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5981EEE-19C9-F644-84EC-8AECCFB8D104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D597CE5-9387-7D48-8453-E0882BA42813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1941,13 +1941,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>44.98</v>
+    <v>45.9</v>
     <v>28.34</v>
-    <v>1.9390000000000001</v>
-    <v>1.18</v>
-    <v>2.7258000000000001E-2</v>
-    <v>0.43</v>
-    <v>9.6690000000000005E-3</v>
+    <v>1.738</v>
+    <v>0.59</v>
+    <v>1.3645000000000001E-2</v>
+    <v>-0.30459999999999998</v>
+    <v>-6.9499999999999996E-3</v>
     <v>USD</v>
     <v>Rubrik, Inc. is a converged data management company. The Company has developed Zero Trust Data Security. It helps organizations achieve business resilience against cyberattacks, malicious insiders, and operational disruptions. Its Rubrik Security Cloud (RSC), powered by machine learning, secures data across enterprise, cloud, and Software as a service (SaaS) application. RSC detects, analyzes, and remediates data security risks and unauthorized user activities. It helps organizations uphold data integrity, deliver data availability that withstands adverse conditions, continuously monitor data risks and threats, and restore businesses with their data when infrastructure is attacked. The Company offers Ruby for artificial intelligence (AI) data defense and recovery. Ruby is designed to help customers scale their data security operations with automation, boosting productivity, and bridging the users’ skills gap.</v>
     <v>3100</v>
@@ -1955,23 +1955,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3495 Deer Creek Road, PALO ALTO, CA, 94304 US</v>
-    <v>44.98</v>
+    <v>44.29</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.03939859922</v>
-    <v>43.3</v>
-    <v>8078117804</v>
+    <v>45615.000000010936</v>
+    <v>43.079599999999999</v>
+    <v>7961859756</v>
     <v>RUBRIK, INC.</v>
     <v>RUBRIK, INC.</v>
-    <v>43.6</v>
-    <v>43.29</v>
-    <v>44.47</v>
-    <v>44.9</v>
+    <v>43.61</v>
+    <v>43.24</v>
+    <v>43.83</v>
+    <v>43.525399999999998</v>
     <v>181653200</v>
     <v>RBRK</v>
     <v>RUBRIK, INC. (XNYS:RBRK)</v>
-    <v>1286668</v>
-    <v>1770906</v>
+    <v>750142</v>
+    <v>1319786</v>
     <v>2013</v>
   </rv>
   <rv s="1">
@@ -2851,7 +2851,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2884,14 +2884,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>44.47</v>
+        <v>43.83</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.6743925796407186</v>
+        <v>9.535161384431138</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2931,14 +2931,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.7258000000000001E-2</v>
+        <v>1.3645000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>-25.009652643962848</v>
+        <v>-24.649720606811144</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2979,14 +2979,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>8078117804</v>
+        <v>7961859756</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>-1.9187637982111309E-2</v>
+        <v>-1.9467813394124799E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3028,7 +3028,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.9390000000000001</v>
+        <v>1.738</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.67542394664206018</v>
+        <v>-0.67068452902515208</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
